--- a/data/leaguedatatest.xlsx
+++ b/data/leaguedatatest.xlsx
@@ -118,7 +118,34 @@
     <t xml:space="preserve">Matt Withers</t>
   </si>
   <si>
-    <t xml:space="preserve">Test Comp 3</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">BC Test Comp 3 19</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> April </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">19/04/2025</t>
@@ -132,7 +159,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -156,6 +183,13 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="0"/>
@@ -519,7 +553,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F42" activeCellId="0" sqref="F42"/>
+      <selection pane="topLeft" activeCell="E43" activeCellId="0" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/leaguedatatest.xlsx
+++ b/data/leaguedatatest.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Settings" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="37">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -149,6 +150,15 @@
   </si>
   <si>
     <t xml:space="preserve">19/04/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">League Champions Pot</t>
   </si>
 </sst>
 </file>
@@ -264,7 +274,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -298,6 +308,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -552,7 +566,7 @@
   </sheetPr>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E43" activeCellId="0" sqref="E43"/>
     </sheetView>
   </sheetViews>
@@ -1492,4 +1506,44 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="9" t="n">
+        <v>188.69</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/data/leaguedatatest.xlsx
+++ b/data/leaguedatatest.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thequ\Documents\GitHub\TheLeague\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Settings" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,179 +25,166 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="34">
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Points</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Competition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dave McMinn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS - 5th April - 38 Points</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/04/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paul Mellor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brain Combe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paul Owens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jim Hall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jay Dempsey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neil Bearne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jay Francis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andy Mee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simon Peers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tony Doyle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chris Mausdsley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jim Walker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Craig Pickerill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mark Gregory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nick Guest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ben Gregory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1st  MM 12th April</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/04/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dan Edmiston</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andy Loftus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andy Roe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matt Withers</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="37">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Competition</t>
+  </si>
+  <si>
+    <t>Winnings</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Dave McMinn</t>
+  </si>
+  <si>
+    <t>SS - 5th April - 38 Points</t>
+  </si>
+  <si>
+    <t>05/04/2025</t>
+  </si>
+  <si>
+    <t>Paul Mellor</t>
+  </si>
+  <si>
+    <t>Brain Combe</t>
+  </si>
+  <si>
+    <t>Paul Owens</t>
+  </si>
+  <si>
+    <t>Jim Hall</t>
+  </si>
+  <si>
+    <t>Jay Dempsey</t>
+  </si>
+  <si>
+    <t>Neil Bearne</t>
+  </si>
+  <si>
+    <t>Jay Francis</t>
+  </si>
+  <si>
+    <t>Andy Mee</t>
+  </si>
+  <si>
+    <t>Simon Peers</t>
+  </si>
+  <si>
+    <t>Tony Doyle</t>
+  </si>
+  <si>
+    <t>Chris Mausdsley</t>
+  </si>
+  <si>
+    <t>Jim Walker</t>
+  </si>
+  <si>
+    <t>Craig Pickerill</t>
+  </si>
+  <si>
+    <t>Mark Gregory</t>
+  </si>
+  <si>
+    <t>Nick Guest</t>
+  </si>
+  <si>
+    <t>Ben Gregory</t>
+  </si>
+  <si>
+    <t>1st  MM 12th April</t>
+  </si>
+  <si>
+    <t>12/04/2025</t>
+  </si>
+  <si>
+    <t>Dan Edmiston</t>
+  </si>
+  <si>
+    <t>Andy Loftus</t>
+  </si>
+  <si>
+    <t>Andy Roe</t>
+  </si>
+  <si>
+    <t>Matt Withers</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">BC Test Comp 3 19</t>
+      <t>BC Test Comp 3 19</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> April </t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">19/04/2025</t>
+    <t>19/04/2025</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>League Champions Pot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -211,105 +203,70 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -368,62 +325,78 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="a7a7a7"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
         <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4f81bd"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="c0504d"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9bbb59"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064a2"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4bacc6"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="f79646"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ff"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="ff00ff"/>
+        <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office Theme">
       <a:majorFont>
-        <a:latin typeface="Helvetica Neue" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Helvetica Neue" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Helvetica Neue" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica Neue" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Helvetica Neue" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Helvetica Neue" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -450,7 +423,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -468,7 +441,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -519,7 +492,7 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -537,36 +510,35 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E43" activeCellId="0" sqref="E43"/>
+    <sheetView showGridLines="0" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="31.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="31.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="1" width="8.86"/>
+    <col min="1" max="1" width="43" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.81640625" style="1"/>
+    <col min="5" max="5" width="31.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.81640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -589,63 +561,63 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="5">
         <v>62</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="6">
         <v>17</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="6">
         <v>24.48</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="5">
         <v>64</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" s="6">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="n">
+      <c r="D3" s="6">
         <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="6">
         <v>16.32</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="5">
         <v>66</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="6">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="6">
         <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -656,17 +628,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="5">
         <v>66</v>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="6">
         <v>4</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="6">
         <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -677,17 +649,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="5">
         <v>67</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="6">
         <v>5</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="6">
         <v>13</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -698,17 +670,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="5">
         <v>68</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="6">
         <v>6</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="6">
         <v>12</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -719,17 +691,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="5">
         <v>71</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="6">
         <v>7</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="6">
         <v>11</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -740,17 +712,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="5">
         <v>71</v>
       </c>
-      <c r="C9" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="D9" s="6" t="n">
+      <c r="C9" s="6">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6">
         <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -761,17 +733,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="5" t="n">
+      <c r="B10" s="5">
         <v>72</v>
       </c>
-      <c r="C10" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D10" s="6" t="n">
+      <c r="C10" s="6">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6">
         <v>9</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -782,17 +754,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="5" t="n">
+      <c r="B11" s="5">
         <v>73</v>
       </c>
-      <c r="C11" s="6" t="n">
+      <c r="C11" s="6">
         <v>10</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="D11" s="6">
         <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -803,17 +775,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="5" t="n">
+      <c r="B12" s="5">
         <v>73</v>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="C12" s="6">
         <v>11</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="D12" s="6">
         <v>7</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -824,17 +796,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="5" t="n">
+      <c r="B13" s="5">
         <v>73</v>
       </c>
-      <c r="C13" s="6" t="n">
+      <c r="C13" s="6">
         <v>12</v>
       </c>
-      <c r="D13" s="6" t="n">
+      <c r="D13" s="6">
         <v>6</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -845,17 +817,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="5" t="n">
+      <c r="B14" s="5">
         <v>74</v>
       </c>
-      <c r="C14" s="6" t="n">
+      <c r="C14" s="6">
         <v>13</v>
       </c>
-      <c r="D14" s="6" t="n">
+      <c r="D14" s="6">
         <v>5</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -866,17 +838,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="5" t="n">
+      <c r="B15" s="5">
         <v>76</v>
       </c>
-      <c r="C15" s="6" t="n">
+      <c r="C15" s="6">
         <v>14</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" s="6">
         <v>4</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -887,17 +859,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="5" t="n">
+      <c r="B16" s="5">
         <v>77</v>
       </c>
-      <c r="C16" s="6" t="n">
+      <c r="C16" s="6">
         <v>15</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="D16" s="6">
         <v>3</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -908,17 +880,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="5" t="n">
+      <c r="B17" s="5">
         <v>80</v>
       </c>
-      <c r="C17" s="6" t="n">
+      <c r="C17" s="6">
         <v>16</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="D17" s="6">
         <v>2</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -929,17 +901,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="5" t="n">
+      <c r="B18" s="5">
         <v>91</v>
       </c>
-      <c r="C18" s="6" t="n">
+      <c r="C18" s="6">
         <v>17</v>
       </c>
-      <c r="D18" s="6" t="n">
+      <c r="D18" s="6">
         <v>1</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -950,63 +922,63 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="8" t="n">
+      <c r="B19" s="8">
         <v>59</v>
       </c>
-      <c r="C19" s="8" t="n">
+      <c r="C19" s="8">
         <v>1</v>
       </c>
-      <c r="D19" s="8" t="n">
+      <c r="D19" s="8">
         <v>21</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="8" t="n">
+      <c r="F19" s="8">
         <v>30.24</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="8" t="n">
+      <c r="B20" s="8">
         <v>61</v>
       </c>
-      <c r="C20" s="8" t="n">
+      <c r="C20" s="8">
         <v>2</v>
       </c>
-      <c r="D20" s="8" t="n">
+      <c r="D20" s="8">
         <v>20</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="8" t="n">
+      <c r="F20" s="8">
         <v>20.16</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="8" t="n">
+      <c r="B21" s="8">
         <v>63</v>
       </c>
-      <c r="C21" s="8" t="n">
+      <c r="C21" s="8">
         <v>3</v>
       </c>
-      <c r="D21" s="8" t="n">
+      <c r="D21" s="8">
         <v>19</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -1017,17 +989,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="8" t="n">
+      <c r="B22" s="8">
         <v>63</v>
       </c>
-      <c r="C22" s="8" t="n">
+      <c r="C22" s="8">
         <v>4</v>
       </c>
-      <c r="D22" s="8" t="n">
+      <c r="D22" s="8">
         <v>18</v>
       </c>
       <c r="E22" s="7" t="s">
@@ -1038,17 +1010,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="8" t="n">
+      <c r="B23" s="8">
         <v>64</v>
       </c>
-      <c r="C23" s="8" t="n">
+      <c r="C23" s="8">
         <v>5</v>
       </c>
-      <c r="D23" s="8" t="n">
+      <c r="D23" s="8">
         <v>17</v>
       </c>
       <c r="E23" s="7" t="s">
@@ -1059,17 +1031,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="8" t="n">
+      <c r="B24" s="8">
         <v>64</v>
       </c>
-      <c r="C24" s="8" t="n">
+      <c r="C24" s="8">
         <v>6</v>
       </c>
-      <c r="D24" s="8" t="n">
+      <c r="D24" s="8">
         <v>16</v>
       </c>
       <c r="E24" s="7" t="s">
@@ -1080,17 +1052,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="8" t="n">
+      <c r="B25" s="8">
         <v>65</v>
       </c>
-      <c r="C25" s="8" t="n">
+      <c r="C25" s="8">
         <v>7</v>
       </c>
-      <c r="D25" s="8" t="n">
+      <c r="D25" s="8">
         <v>15</v>
       </c>
       <c r="E25" s="7" t="s">
@@ -1101,17 +1073,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="8" t="n">
+      <c r="B26" s="8">
         <v>65</v>
       </c>
-      <c r="C26" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="D26" s="8" t="n">
+      <c r="C26" s="8">
+        <v>8</v>
+      </c>
+      <c r="D26" s="8">
         <v>14</v>
       </c>
       <c r="E26" s="7" t="s">
@@ -1122,17 +1094,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="8" t="n">
+      <c r="B27" s="8">
         <v>66</v>
       </c>
-      <c r="C27" s="8" t="n">
-        <v>9</v>
-      </c>
-      <c r="D27" s="8" t="n">
+      <c r="C27" s="8">
+        <v>9</v>
+      </c>
+      <c r="D27" s="8">
         <v>13</v>
       </c>
       <c r="E27" s="7" t="s">
@@ -1143,17 +1115,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="8" t="n">
+      <c r="B28" s="8">
         <v>68</v>
       </c>
-      <c r="C28" s="8" t="n">
+      <c r="C28" s="8">
         <v>10</v>
       </c>
-      <c r="D28" s="8" t="n">
+      <c r="D28" s="8">
         <v>12</v>
       </c>
       <c r="E28" s="7" t="s">
@@ -1164,17 +1136,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="8" t="n">
+      <c r="B29" s="8">
         <v>69</v>
       </c>
-      <c r="C29" s="8" t="n">
+      <c r="C29" s="8">
         <v>11</v>
       </c>
-      <c r="D29" s="8" t="n">
+      <c r="D29" s="8">
         <v>11</v>
       </c>
       <c r="E29" s="7" t="s">
@@ -1185,17 +1157,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="8" t="n">
+      <c r="B30" s="8">
         <v>70</v>
       </c>
-      <c r="C30" s="8" t="n">
+      <c r="C30" s="8">
         <v>12</v>
       </c>
-      <c r="D30" s="8" t="n">
+      <c r="D30" s="8">
         <v>10</v>
       </c>
       <c r="E30" s="7" t="s">
@@ -1206,17 +1178,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="8" t="n">
+      <c r="B31" s="8">
         <v>70</v>
       </c>
-      <c r="C31" s="8" t="n">
+      <c r="C31" s="8">
         <v>13</v>
       </c>
-      <c r="D31" s="8" t="n">
+      <c r="D31" s="8">
         <v>9</v>
       </c>
       <c r="E31" s="7" t="s">
@@ -1227,17 +1199,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="8" t="n">
+      <c r="B32" s="8">
         <v>71</v>
       </c>
-      <c r="C32" s="8" t="n">
+      <c r="C32" s="8">
         <v>14</v>
       </c>
-      <c r="D32" s="8" t="n">
+      <c r="D32" s="8">
         <v>8</v>
       </c>
       <c r="E32" s="7" t="s">
@@ -1248,17 +1220,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="8" t="n">
+      <c r="B33" s="8">
         <v>72</v>
       </c>
-      <c r="C33" s="8" t="n">
+      <c r="C33" s="8">
         <v>15</v>
       </c>
-      <c r="D33" s="8" t="n">
+      <c r="D33" s="8">
         <v>7</v>
       </c>
       <c r="E33" s="7" t="s">
@@ -1269,17 +1241,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="8" t="n">
+      <c r="B34" s="8">
         <v>72</v>
       </c>
-      <c r="C34" s="8" t="n">
+      <c r="C34" s="8">
         <v>16</v>
       </c>
-      <c r="D34" s="8" t="n">
+      <c r="D34" s="8">
         <v>6</v>
       </c>
       <c r="E34" s="7" t="s">
@@ -1290,17 +1262,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="8" t="n">
+      <c r="B35" s="8">
         <v>73</v>
       </c>
-      <c r="C35" s="8" t="n">
+      <c r="C35" s="8">
         <v>17</v>
       </c>
-      <c r="D35" s="8" t="n">
+      <c r="D35" s="8">
         <v>5</v>
       </c>
       <c r="E35" s="7" t="s">
@@ -1311,17 +1283,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="8" t="n">
+      <c r="B36" s="8">
         <v>76</v>
       </c>
-      <c r="C36" s="8" t="n">
+      <c r="C36" s="8">
         <v>18</v>
       </c>
-      <c r="D36" s="8" t="n">
+      <c r="D36" s="8">
         <v>4</v>
       </c>
       <c r="E36" s="7" t="s">
@@ -1332,17 +1304,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="8" t="n">
+      <c r="B37" s="8">
         <v>77</v>
       </c>
-      <c r="C37" s="8" t="n">
+      <c r="C37" s="8">
         <v>19</v>
       </c>
-      <c r="D37" s="8" t="n">
+      <c r="D37" s="8">
         <v>3</v>
       </c>
       <c r="E37" s="7" t="s">
@@ -1353,17 +1325,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="8" t="n">
+      <c r="B38" s="8">
         <v>77</v>
       </c>
-      <c r="C38" s="8" t="n">
+      <c r="C38" s="8">
         <v>20</v>
       </c>
-      <c r="D38" s="8" t="n">
+      <c r="D38" s="8">
         <v>2</v>
       </c>
       <c r="E38" s="7" t="s">
@@ -1374,17 +1346,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="8" t="n">
+      <c r="B39" s="8">
         <v>80</v>
       </c>
-      <c r="C39" s="8" t="n">
+      <c r="C39" s="8">
         <v>21</v>
       </c>
-      <c r="D39" s="8" t="n">
+      <c r="D39" s="8">
         <v>1</v>
       </c>
       <c r="E39" s="7" t="s">
@@ -1395,63 +1367,63 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="5" t="n">
+      <c r="B40" s="5">
         <v>62</v>
       </c>
-      <c r="C40" s="6" t="n">
+      <c r="C40" s="6">
         <v>1</v>
       </c>
-      <c r="D40" s="6" t="n">
+      <c r="D40" s="6">
         <v>40</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F40" s="6" t="n">
+      <c r="F40" s="6">
         <v>100</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="5" t="n">
+      <c r="B41" s="5">
         <v>64</v>
       </c>
-      <c r="C41" s="6" t="n">
+      <c r="C41" s="6">
         <v>2</v>
       </c>
-      <c r="D41" s="6" t="n">
+      <c r="D41" s="6">
         <v>39</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F41" s="6" t="n">
+      <c r="F41" s="6">
         <v>50</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="8" t="n">
+      <c r="B42" s="8">
         <v>77</v>
       </c>
-      <c r="C42" s="8" t="n">
+      <c r="C42" s="8">
         <v>3</v>
       </c>
-      <c r="D42" s="8" t="n">
+      <c r="D42" s="8">
         <v>38</v>
       </c>
       <c r="E42" s="4" t="s">
@@ -1462,17 +1434,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="8" t="n">
+      <c r="B43" s="8">
         <v>80</v>
       </c>
-      <c r="C43" s="8" t="n">
+      <c r="C43" s="8">
         <v>4</v>
       </c>
-      <c r="D43" s="8" t="n">
+      <c r="D43" s="8">
         <v>37</v>
       </c>
       <c r="E43" s="4" t="s">
@@ -1484,12 +1456,41 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.3"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="9">
+        <v>80.97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>